--- a/public/assets/plantilla_ganado.xlsx
+++ b/public/assets/plantilla_ganado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MATEBOOK 14\OneDrive\Escritorio\ganaderia-oficial\public\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC8A1D44-9C3C-4526-9429-C5809709CC7A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBCD3FDE-B566-43BD-8500-918DD6F62371}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9830" xr2:uid="{EF0EA561-87A7-4DF6-AC1A-EC56AE69358E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Arete SINIIGA (requerido)</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Lote</t>
   </si>
   <si>
-    <t>Fecha Nacimiento (AAAA-MM-DD)</t>
-  </si>
-  <si>
     <t>Numero Pierna</t>
   </si>
   <si>
@@ -76,13 +73,42 @@
   </si>
   <si>
     <t>(IA-FIV-TE)</t>
+  </si>
+  <si>
+    <t>Fecha Nacimiento (DD-MM-AAA)</t>
+  </si>
+  <si>
+    <r>
+      <t>123456789012 (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>borra e inicia aqui</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,21 +118,43 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="2" tint="-0.249977111117893"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -114,16 +162,87 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Entrada" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -440,62 +559,62 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.08984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.54296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>1234567890</v>
+      <c r="A2" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -504,16 +623,16 @@
         <v>45003</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
